--- a/algorithm/fair_comparison/fc6/fair_comparison_stats_mix.xlsx
+++ b/algorithm/fair_comparison/fc6/fair_comparison_stats_mix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Note_Database\Subject\MS Monographic Study\MS Phase6\MCU\SMRBS-ESP32\algorithm\fair_comparison\fc6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7CC076-F904-447D-9EF3-5ED162583E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F3246A-F9D5-4C1E-8856-E8F3F9015118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>scale</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>pe16</t>
+  </si>
+  <si>
+    <t>max of mean</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3663,7 +3663,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3674,22 +3674,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="6"/>
     </row>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <f>MAX(B3:G3)</f>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <f>B11/B3</f>
